--- a/data/CBS/NFIB/Compensation Plans.xlsx
+++ b/data/CBS/NFIB/Compensation Plans.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{815CCF13-CE8C-43A0-9327-B41942AA9E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="462">
   <si>
     <t>Month/Year</t>
   </si>
@@ -69,12 +70,15 @@
     <t>1986/10/1</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
     <t>1986/12/1</t>
   </si>
   <si>
@@ -84,9 +88,6 @@
     <t>1987/2/1</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>1987/3/1</t>
   </si>
   <si>
@@ -273,30 +274,30 @@
     <t>1991/10/1</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
     <t>1992/4/1</t>
   </si>
   <si>
@@ -357,345 +358,345 @@
     <t>1993/10/1</t>
   </si>
   <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
+    <t>1996/8/1</t>
+  </si>
+  <si>
+    <t>1996/9/1</t>
+  </si>
+  <si>
+    <t>1996/10/1</t>
+  </si>
+  <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
+    <t>1997/6/1</t>
+  </si>
+  <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
+  </si>
+  <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
+    <t>2000/4/1</t>
+  </si>
+  <si>
+    <t>2000/5/1</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
-    <t>1996/9/1</t>
-  </si>
-  <si>
-    <t>1996/10/1</t>
-  </si>
-  <si>
-    <t>1996/11/1</t>
-  </si>
-  <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
-    <t>1997/6/1</t>
-  </si>
-  <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
-    <t>2000/4/1</t>
-  </si>
-  <si>
-    <t>2000/5/1</t>
-  </si>
-  <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
     <t>2003/3/1</t>
   </si>
   <si>
@@ -1398,13 +1399,19 @@
     <t>2021/10/1</t>
   </si>
   <si>
-    <t>31</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1553,6 +1560,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1588,6 +1612,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1763,8 +1804,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1869,12 +1910,12 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1882,7 +1923,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1890,10 +1931,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1998,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,7 +2190,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2245,7 +2286,7 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,7 +2318,7 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2358,7 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +2366,7 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2374,7 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,39 +2390,39 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
         <v>87</v>
-      </c>
-      <c r="B73" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
         <v>91</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +2430,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2438,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,7 +2446,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2413,7 +2454,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2421,7 +2462,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2429,7 +2470,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2437,7 +2478,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2486,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +2510,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +2518,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,7 +2526,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2534,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2542,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2550,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2566,7 @@
         <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,68 +2574,68 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2602,7 +2643,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -2610,23 +2651,23 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
@@ -2634,7 +2675,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
@@ -2642,7 +2683,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" t="s">
         <v>13</v>
@@ -2650,7 +2691,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
@@ -2658,7 +2699,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -2666,7 +2707,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -2674,7 +2715,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -2682,15 +2723,15 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -2698,15 +2739,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
@@ -2714,23 +2755,23 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
@@ -2738,15 +2779,15 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -2754,7 +2795,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -2762,7 +2803,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -2770,7 +2811,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -2778,7 +2819,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -2786,7 +2827,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -2794,7 +2835,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -2802,7 +2843,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B129" t="s">
         <v>26</v>
@@ -2810,7 +2851,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
@@ -2818,15 +2859,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -2834,7 +2875,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -2842,7 +2883,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -2850,7 +2891,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -2858,7 +2899,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B136" t="s">
         <v>26</v>
@@ -2866,7 +2907,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -2874,7 +2915,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -2882,7 +2923,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -2890,7 +2931,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
@@ -2898,7 +2939,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B141" t="s">
         <v>34</v>
@@ -2906,7 +2947,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" t="s">
         <v>40</v>
@@ -2914,15 +2955,15 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144" t="s">
         <v>26</v>
@@ -2930,7 +2971,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" t="s">
         <v>26</v>
@@ -2938,7 +2979,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -2946,7 +2987,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -2954,7 +2995,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B148" t="s">
         <v>26</v>
@@ -2962,7 +3003,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B149" t="s">
         <v>26</v>
@@ -2970,7 +3011,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150" t="s">
         <v>37</v>
@@ -2978,7 +3019,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -2986,7 +3027,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -2994,7 +3035,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B153" t="s">
         <v>34</v>
@@ -3002,7 +3043,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B154" t="s">
         <v>37</v>
@@ -3010,15 +3051,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B156" t="s">
         <v>40</v>
@@ -3026,7 +3067,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157" t="s">
         <v>26</v>
@@ -3034,7 +3075,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -3042,7 +3083,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -3050,7 +3091,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B160" t="s">
         <v>34</v>
@@ -3058,7 +3099,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B161" t="s">
         <v>48</v>
@@ -3066,7 +3107,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B162" t="s">
         <v>26</v>
@@ -3074,7 +3115,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B163" t="s">
         <v>26</v>
@@ -3082,7 +3123,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -3090,7 +3131,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -3098,7 +3139,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B166" t="s">
         <v>34</v>
@@ -3106,15 +3147,15 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B168" t="s">
         <v>37</v>
@@ -3122,7 +3163,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B169" t="s">
         <v>37</v>
@@ -3130,7 +3171,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B170" t="s">
         <v>37</v>
@@ -3138,7 +3179,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B171" t="s">
         <v>37</v>
@@ -3146,7 +3187,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B172" t="s">
         <v>48</v>
@@ -3154,7 +3195,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B173" t="s">
         <v>26</v>
@@ -3162,7 +3203,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B174" t="s">
         <v>34</v>
@@ -3170,7 +3211,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B175" t="s">
         <v>34</v>
@@ -3178,7 +3219,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B176" t="s">
         <v>34</v>
@@ -3186,7 +3227,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B177" t="s">
         <v>37</v>
@@ -3194,7 +3235,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B178" t="s">
         <v>26</v>
@@ -3202,15 +3243,15 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B179" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B180" t="s">
         <v>37</v>
@@ -3218,7 +3259,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B181" t="s">
         <v>37</v>
@@ -3226,7 +3267,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B182" t="s">
         <v>37</v>
@@ -3234,7 +3275,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -3242,7 +3283,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B184" t="s">
         <v>34</v>
@@ -3250,7 +3291,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -3258,7 +3299,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -3266,7 +3307,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -3274,7 +3315,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B188" t="s">
         <v>13</v>
@@ -3282,7 +3323,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -3290,39 +3331,39 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B194" t="s">
         <v>13</v>
@@ -3330,31 +3371,31 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B195" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B198" t="s">
         <v>13</v>
@@ -3362,7 +3403,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -3370,15 +3411,15 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B200" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B201" t="s">
         <v>13</v>
@@ -3386,7 +3427,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B202" t="s">
         <v>13</v>
@@ -3394,42 +3435,42 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B204" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B205" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>223</v>
+      </c>
+      <c r="B207" t="s">
         <v>224</v>
-      </c>
-      <c r="B207" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +3478,7 @@
         <v>225</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3486,7 @@
         <v>226</v>
       </c>
       <c r="B209" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +3494,7 @@
         <v>227</v>
       </c>
       <c r="B210" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3461,7 +3502,7 @@
         <v>228</v>
       </c>
       <c r="B211" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,7 +3510,7 @@
         <v>229</v>
       </c>
       <c r="B212" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +3518,7 @@
         <v>230</v>
       </c>
       <c r="B213" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3485,7 +3526,7 @@
         <v>231</v>
       </c>
       <c r="B214" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3493,7 +3534,7 @@
         <v>232</v>
       </c>
       <c r="B215" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3501,7 +3542,7 @@
         <v>233</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3509,7 +3550,7 @@
         <v>234</v>
       </c>
       <c r="B217" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,7 +3558,7 @@
         <v>235</v>
       </c>
       <c r="B218" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3525,7 +3566,7 @@
         <v>236</v>
       </c>
       <c r="B219" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,7 +3574,7 @@
         <v>237</v>
       </c>
       <c r="B220" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,7 +3590,7 @@
         <v>239</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3598,7 @@
         <v>240</v>
       </c>
       <c r="B223" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +3622,7 @@
         <v>243</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,7 +3630,7 @@
         <v>244</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3726,7 @@
         <v>256</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3781,7 +3822,7 @@
         <v>268</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +3902,7 @@
         <v>278</v>
       </c>
       <c r="B261" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3877,7 +3918,7 @@
         <v>280</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3885,7 +3926,7 @@
         <v>281</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3901,7 +3942,7 @@
         <v>283</v>
       </c>
       <c r="B266" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,7 +3950,7 @@
         <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,7 +3966,7 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,7 +3982,7 @@
         <v>288</v>
       </c>
       <c r="B271" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3949,7 +3990,7 @@
         <v>289</v>
       </c>
       <c r="B272" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,7 +3998,7 @@
         <v>290</v>
       </c>
       <c r="B273" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,7 +4006,7 @@
         <v>291</v>
       </c>
       <c r="B274" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +4014,7 @@
         <v>292</v>
       </c>
       <c r="B275" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3981,7 +4022,7 @@
         <v>293</v>
       </c>
       <c r="B276" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +4110,7 @@
         <v>310</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,7 +4206,7 @@
         <v>323</v>
       </c>
       <c r="B299" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4205,7 +4246,7 @@
         <v>329</v>
       </c>
       <c r="B304" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4261,7 +4302,7 @@
         <v>336</v>
       </c>
       <c r="B311" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4293,7 +4334,7 @@
         <v>340</v>
       </c>
       <c r="B315" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4301,7 +4342,7 @@
         <v>341</v>
       </c>
       <c r="B316" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,7 +4350,7 @@
         <v>342</v>
       </c>
       <c r="B317" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4317,7 +4358,7 @@
         <v>343</v>
       </c>
       <c r="B318" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4341,7 +4382,7 @@
         <v>346</v>
       </c>
       <c r="B321" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +4390,7 @@
         <v>347</v>
       </c>
       <c r="B322" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +4398,7 @@
         <v>348</v>
       </c>
       <c r="B323" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4438,7 @@
         <v>353</v>
       </c>
       <c r="B328" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4405,7 +4446,7 @@
         <v>354</v>
       </c>
       <c r="B329" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4413,7 +4454,7 @@
         <v>355</v>
       </c>
       <c r="B330" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4429,7 +4470,7 @@
         <v>357</v>
       </c>
       <c r="B332" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4437,7 +4478,7 @@
         <v>358</v>
       </c>
       <c r="B333" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,7 +4486,7 @@
         <v>359</v>
       </c>
       <c r="B334" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,7 +4494,7 @@
         <v>360</v>
       </c>
       <c r="B335" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,7 +4502,7 @@
         <v>361</v>
       </c>
       <c r="B336" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4469,7 +4510,7 @@
         <v>362</v>
       </c>
       <c r="B337" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +4518,7 @@
         <v>363</v>
       </c>
       <c r="B338" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4485,7 +4526,7 @@
         <v>364</v>
       </c>
       <c r="B339" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4493,7 +4534,7 @@
         <v>365</v>
       </c>
       <c r="B340" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4501,7 +4542,7 @@
         <v>366</v>
       </c>
       <c r="B341" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4517,7 +4558,7 @@
         <v>368</v>
       </c>
       <c r="B343" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4525,7 +4566,7 @@
         <v>369</v>
       </c>
       <c r="B344" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4533,7 +4574,7 @@
         <v>370</v>
       </c>
       <c r="B345" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4549,7 +4590,7 @@
         <v>372</v>
       </c>
       <c r="B347" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4557,7 +4598,7 @@
         <v>373</v>
       </c>
       <c r="B348" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4573,7 +4614,7 @@
         <v>375</v>
       </c>
       <c r="B350" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4581,7 +4622,7 @@
         <v>376</v>
       </c>
       <c r="B351" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4589,7 +4630,7 @@
         <v>377</v>
       </c>
       <c r="B352" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4597,7 +4638,7 @@
         <v>378</v>
       </c>
       <c r="B353" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4605,7 +4646,7 @@
         <v>379</v>
       </c>
       <c r="B354" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4613,7 +4654,7 @@
         <v>380</v>
       </c>
       <c r="B355" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4629,7 +4670,7 @@
         <v>382</v>
       </c>
       <c r="B357" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4645,7 +4686,7 @@
         <v>384</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +4718,7 @@
         <v>388</v>
       </c>
       <c r="B363" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,7 +4750,7 @@
         <v>392</v>
       </c>
       <c r="B367" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,7 +4766,7 @@
         <v>394</v>
       </c>
       <c r="B369" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4733,7 +4774,7 @@
         <v>395</v>
       </c>
       <c r="B370" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4741,7 +4782,7 @@
         <v>396</v>
       </c>
       <c r="B371" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4878,7 @@
         <v>408</v>
       </c>
       <c r="B383" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4933,7 +4974,7 @@
         <v>421</v>
       </c>
       <c r="B395" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,7 +5070,7 @@
         <v>434</v>
       </c>
       <c r="B407" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5085,7 +5126,7 @@
         <v>442</v>
       </c>
       <c r="B414" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5093,7 +5134,7 @@
         <v>443</v>
       </c>
       <c r="B415" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5101,7 +5142,7 @@
         <v>444</v>
       </c>
       <c r="B416" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5109,7 +5150,7 @@
         <v>445</v>
       </c>
       <c r="B417" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5166,7 @@
         <v>447</v>
       </c>
       <c r="B419" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,7 +5182,7 @@
         <v>449</v>
       </c>
       <c r="B421" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5216,9 +5257,18 @@
         <v>459</v>
       </c>
     </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>460</v>
+      </c>
+      <c r="B431" t="s">
+        <v>461</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>